--- a/outputs-Archaea/g__Methanobrevibacter.xlsx
+++ b/outputs-Archaea/g__Methanobrevibacter.xlsx
@@ -536,7 +536,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>s__Methanobrevibacter sp900321995</t>
+          <t>s__Methanobrevibacter sp900321995(reject)</t>
         </is>
       </c>
     </row>
